--- a/2021-25 spawning summary.xlsx
+++ b/2021-25 spawning summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\research\nmsu\hatchery operation\codes\dynamic programming2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242D2E06-AB69-433C-8B9D-34F72961EECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1863B52F-664B-468D-BB79-483265F86DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A04B0ED6-A3E7-4874-B561-F906304201AE}"/>
   </bookViews>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="81">
   <si>
     <t>Tank#</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>Larvae Ponded</t>
+  </si>
+  <si>
+    <t>Ponded/femae times 0.8</t>
   </si>
 </sst>
 </file>
@@ -871,15 +874,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7BACE7-78B1-4A8C-B668-4A8E033E86CC}">
-  <dimension ref="B4:H9"/>
+  <dimension ref="B4:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I6" sqref="I6:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>72</v>
       </c>
@@ -901,8 +904,11 @@
       <c r="H4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2021</v>
       </c>
@@ -920,7 +926,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2022</v>
       </c>
@@ -944,8 +950,12 @@
         <f>D6/E6</f>
         <v>806.87121212121212</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f>H6*0.8</f>
+        <v>645.4969696969697</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2023</v>
       </c>
@@ -969,8 +979,12 @@
         <f>D7/E7</f>
         <v>1202.6857142857143</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" ref="I7:I9" si="0">H7*0.8</f>
+        <v>962.14857142857147</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2024</v>
       </c>
@@ -994,8 +1008,12 @@
         <f>D8/E8</f>
         <v>929.7045454545455</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>743.76363636363646</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2025</v>
       </c>
@@ -1019,10 +1037,15 @@
         <f>D9/E9</f>
         <v>443.734375</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>354.98750000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
